--- a/assets/files/excel/24620.xlsx
+++ b/assets/files/excel/24620.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Сапунова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="2Ch3eAOP14GkFMnKWlvSPlhuRxAPtkoV4ln1bsMlzb8fD4FLqj0rlmTPqEdlPks6CJXJqAUKODWEqqg3KYktAg==" workbookSaltValue="KefppluBrEQjm7Q6bYtUXA==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZtaghOVaVD8QNoeA90YP1o26630ItIrhT3Z03aeILZnQOoKVMkdqsvm0E92E/p6V2ski8/fJm6D+j0Sdq7Xcig==" workbookSaltValue="kifCb17E6jVs7I98OogEKw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -1021,6 +1021,8 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,8 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1423,30 +1423,30 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="98" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1468,15 +1468,15 @@
       <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
@@ -2118,15 +2118,15 @@
     </row>
     <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="100" t="s">
+      <c r="A57" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="101"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
-      <c r="G57" s="102"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="104"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C58" s="66" t="s">
@@ -2163,15 +2163,15 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="105" t="s">
+      <c r="A62" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="107"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="108"/>
+      <c r="B62" s="108"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="110"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="64" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H53"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,15 +2412,15 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="99"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -2441,7 +2441,7 @@
         <v>615197.3356444611</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>IFERROR(IF(Автокредит!D7='Автокредит (решение)'!D6,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(Автокредит!D7-'Автокредит (решение)'!D6)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>613750</v>
       </c>
       <c r="E7" s="1" t="str">
-        <f>IFERROR(IF(Автокредит!D8='Автокредит (решение)'!D7,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(Автокредит!D8-'Автокредит (решение)'!D7)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
     </row>
@@ -2463,15 +2463,15 @@
       <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="104"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2656,7 +2656,7 @@
         <f t="shared" ref="G18:G53" si="2">-PMT($D$11/12,$D$13,$D$10)</f>
         <v>17088.814879012811</v>
       </c>
-      <c r="H18" s="109"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
     </row>
@@ -2687,7 +2687,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H19" s="109"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
     </row>
@@ -2718,7 +2718,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H20" s="109"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
     </row>
@@ -2749,7 +2749,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H21" s="109"/>
+      <c r="H21" s="97"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
     </row>
@@ -2780,7 +2780,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H22" s="109"/>
+      <c r="H22" s="97"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
     </row>
@@ -2811,7 +2811,7 @@
         <f>-PMT($D$11/12,$D$13,$D$10)</f>
         <v>17088.814879012811</v>
       </c>
-      <c r="H23" s="109"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
     </row>
@@ -2842,7 +2842,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H24" s="109"/>
+      <c r="H24" s="97"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
@@ -2873,7 +2873,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H25" s="109"/>
+      <c r="H25" s="97"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
@@ -2902,7 +2902,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H26" s="109"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
@@ -2931,7 +2931,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H27" s="109"/>
+      <c r="H27" s="97"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
@@ -2960,7 +2960,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H28" s="109"/>
+      <c r="H28" s="97"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
@@ -2989,7 +2989,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H29" s="109"/>
+      <c r="H29" s="97"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
@@ -3018,7 +3018,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H30" s="109"/>
+      <c r="H30" s="97"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
@@ -3047,7 +3047,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H31" s="109"/>
+      <c r="H31" s="97"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
@@ -3076,7 +3076,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H32" s="109"/>
+      <c r="H32" s="97"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
@@ -3105,7 +3105,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H33" s="109"/>
+      <c r="H33" s="97"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
@@ -3134,7 +3134,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H34" s="109"/>
+      <c r="H34" s="97"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
@@ -3163,7 +3163,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H35" s="109"/>
+      <c r="H35" s="97"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
@@ -3192,7 +3192,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H36" s="109"/>
+      <c r="H36" s="97"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
@@ -3221,7 +3221,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H37" s="109"/>
+      <c r="H37" s="97"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
@@ -3250,7 +3250,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H38" s="109"/>
+      <c r="H38" s="97"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
@@ -3279,7 +3279,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H39" s="109"/>
+      <c r="H39" s="97"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
@@ -3308,7 +3308,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H40" s="109"/>
+      <c r="H40" s="97"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
@@ -3337,7 +3337,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H41" s="109"/>
+      <c r="H41" s="97"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
@@ -3366,7 +3366,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H42" s="109"/>
+      <c r="H42" s="97"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
@@ -3395,7 +3395,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H43" s="109"/>
+      <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
@@ -3424,7 +3424,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H44" s="109"/>
+      <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
@@ -3453,7 +3453,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H45" s="109"/>
+      <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
@@ -3482,7 +3482,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H46" s="109"/>
+      <c r="H46" s="97"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
@@ -3511,7 +3511,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H47" s="109"/>
+      <c r="H47" s="97"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
@@ -3540,7 +3540,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H48" s="109"/>
+      <c r="H48" s="97"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
@@ -3569,7 +3569,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H49" s="109"/>
+      <c r="H49" s="97"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
@@ -3598,7 +3598,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H50" s="109"/>
+      <c r="H50" s="97"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
@@ -3627,7 +3627,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H51" s="109"/>
+      <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
@@ -3656,7 +3656,7 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H52" s="109"/>
+      <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="27">
@@ -3685,19 +3685,19 @@
         <f t="shared" si="2"/>
         <v>17088.814879012811</v>
       </c>
-      <c r="H53" s="109"/>
+      <c r="H53" s="97"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="100" t="s">
+      <c r="A56" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="101"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="104"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C57" s="66" t="s">
@@ -3734,15 +3734,15 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="105" t="s">
+      <c r="A61" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="108"/>
+      <c r="B61" s="108"/>
+      <c r="C61" s="108"/>
+      <c r="D61" s="108"/>
+      <c r="E61" s="108"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="110"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
